--- a/Regular Summarization_ 530 PM.xlsx
+++ b/Regular Summarization_ 530 PM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23172" windowHeight="9624"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23172" windowHeight="9624" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="18th July - Agenda Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="212">
   <si>
     <t>Date</t>
   </si>
@@ -747,38 +747,93 @@
     <t xml:space="preserve">eda practicle </t>
   </si>
   <si>
+    <t xml:space="preserve">OLAMA + STREAMLIT </t>
+  </si>
+  <si>
+    <t>EDA Practicle  &amp; Gradio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA Practicle we apply all eda technique | Gradio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matplotlib workshop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seaborn workshop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seaborn Bootcamp </t>
+  </si>
+  <si>
+    <t>Visualzation Using Matplotlib</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tTT7XJO30cM&amp;t=4358s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ChJEb5Usxug&amp;t=3958s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JhfTZ1QWN6A&amp;t=4561s</t>
+  </si>
+  <si>
+    <t>02-01-2026
+03-01-2026</t>
+  </si>
+  <si>
     <t xml:space="preserve">raw data - clearn data ( remove reg ex)
-all eda technique apply clean data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLAMA + STREAMLIT </t>
-  </si>
-  <si>
-    <t>EDA Practicle  &amp; Gradio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDA Practicle we apply all eda technique | Gradio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matplotlib workshop </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seaborn workshop </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seaborn Bootcamp </t>
-  </si>
-  <si>
-    <t>Visualzation Using Matplotlib</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tTT7XJO30cM&amp;t=4358s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ChJEb5Usxug&amp;t=3958s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JhfTZ1QWN6A&amp;t=4561s</t>
+all eda technique apply clean data 
+imputation, missing value treatment, graphs  
+Eda  we worked | we intrdouce to gradio </t>
+  </si>
+  <si>
+    <t>Eda Integration + LLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda  integration to llm </t>
+  </si>
+  <si>
+    <t>Eda integrattion + llm model 
+how llm model can integrate to dataset for pull the insgight
+chatpt -- any query -- respone genear from internet 
+prompt in python function ( prompt + llm model ) fetech the data from the dataset 
+we create gradio application you can upload any of the dataset it can pullout the data</t>
+  </si>
+  <si>
+    <t>Integration of llm model + dataset + ollama for automizaton the dataframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population &amp; sample 
+sampling technique -- from population to sampel | inference -- sample to population 
+descriptive stats -- central tendency ( mean, median, mode)
+skewness -- +Ve skew ( mean&gt; median &amp; Mode) data is at left outlier is at right
+-ve skew ( mode &gt; mean &amp; median) -- data is at right outlier is at left
+0 skew - mean = median = mode | normal distribute = gausian distribution = bell curve 
+variance -- spread of the data towards mean | standard deviation -- squrre root of variance 
+population mean - Mu, sample mean x- | population variance -- sigma 2 |sampel variance s2 
+population sd -- root of sigma 2 &amp; sample sd -- root of s2
++ve kurtois -- platykurtiv | -ve kur - lepto kurtic | 0 skew -- meso kurtic  </t>
+  </si>
+  <si>
+    <t>descriptive stats</t>
+  </si>
+  <si>
+    <t>Descriptive stats</t>
+  </si>
+  <si>
+    <t>Income expense descriptive stats analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete .quntile() it will calculate the quartile | &lt;25% or &gt;75% what ever data points to outlier 
+inferential stat - probability &amp; disribution concept comes from probability 
+Roll 1 dice -- uniform distribution ( no meaning ) | Roll 2 dice -- normal distributeion 
+Normal distribution == Gausian distribuion == bell curve  
+confidence interval -- 2 interval point -- estimator &amp; average of 2 estimator is called estimates 
+95% &amp; 99% confidence  | if 95% confidence then error is called 5% 
+statsstic ml journey ( p-value == 0.05) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferential stats </t>
   </si>
 </sst>
 </file>
@@ -1306,11 +1361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -1635,15 +1690,53 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="36">
-      <c r="A29" s="11">
-        <v>46024</v>
+    <row r="29" spans="1:3" ht="90.6" customHeight="1">
+      <c r="A29" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="90">
+      <c r="A30" s="11">
+        <v>46027</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="180">
+      <c r="A31" s="11">
+        <v>46028</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="126">
+      <c r="A32" s="11">
+        <v>46029</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="11">
+        <v>46030</v>
       </c>
     </row>
   </sheetData>
@@ -1656,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView topLeftCell="E20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="15.6"/>
@@ -2184,7 +2277,7 @@
         <v>124</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2201,13 +2294,13 @@
         <v>46025</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2223,13 +2316,13 @@
         <v>46025</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2245,13 +2338,13 @@
         <v>46025</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2260,7 +2353,18 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="D29" s="6"/>
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>46027</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2269,7 +2373,18 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="D30" s="6"/>
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>46029</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2278,6 +2393,9 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>

--- a/Regular Summarization_ 530 PM.xlsx
+++ b/Regular Summarization_ 530 PM.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="241">
   <si>
     <t>Date</t>
   </si>
@@ -945,6 +945,32 @@
   </si>
   <si>
     <t>SLR Backend code | deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple linear regression model we created frontend 
+backed &amp; fronted . Pickle file can save the as wb file 
+frontend used those load the pickle create a project 
+multiple linear regression algoriytm 
+ml devloper need to sugest fridnds organizatino which produc need to inverst more profit
+build ml mlr alog with rfe concept , anova table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLR model </t>
+  </si>
+  <si>
+    <t>https://www.statsmodels.org/stable/api.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mlr </t>
+  </si>
+  <si>
+    <t>multiple linear regression model</t>
+  </si>
+  <si>
+    <t>slr model &amp; mlr model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House price prediction </t>
   </si>
 </sst>
 </file>
@@ -1472,11 +1498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -1922,12 +1948,23 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="108">
       <c r="A40" s="11">
         <v>46044</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>231</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="11">
+        <v>46045</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1940,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="15.6"/>
@@ -2646,8 +2683,21 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>46045</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2655,7 +2705,18 @@
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="D35" s="6"/>
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>46046</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>

--- a/Regular Summarization_ 530 PM.xlsx
+++ b/Regular Summarization_ 530 PM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23172" windowHeight="9624" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23172" windowHeight="9624"/>
   </bookViews>
   <sheets>
     <sheet name="18th July - Agenda Sheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="247">
   <si>
     <t>Date</t>
   </si>
@@ -971,6 +971,33 @@
   </si>
   <si>
     <t xml:space="preserve">House price prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regualariztion technique </t>
+  </si>
+  <si>
+    <t>we buitl multiple lienar lregression model 
+how to add constat to the dataset using np.append
+we build regrssion table | p-value | based on highest we elimate the attribute
+we find out the attribute  | overfitting -- train the model with more data 
+underfitting - train the data with less data | technique to reduce underfit -- add more relavant attribute  
+Technique to reduce overfit -- pca, regularization, cross validation, ensamble learnin, dropout the neurons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polynomial model </t>
+  </si>
+  <si>
+    <t>Regualarize the coefficient of independent values | 3 types of regularization -- l1, l2, elasticnet 
+L1 - lasso -- regularized the coeff to 0 | we call this concept as feature elimination technique 
+L2 - Ridge -- regularize the high coef - low coef but not 0 
+elasticnet -- l1 + l2 (combination of lasso &amp; ridge) | feature scaling technique - standarization, normalization ( we can apply both but bydefault parameter -- standasclaer ( normal distribution)
+FEATURE SELECTION ( business , l1, rfe using p-value) vs FEATURE SCALING vs FEATURE ENGINEERING ( eda tech)</t>
+  </si>
+  <si>
+    <t>Regularization project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cars mpg analysis using l1, l2, simple linear model </t>
   </si>
 </sst>
 </file>
@@ -1498,18 +1525,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="15.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="107.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="116.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="49.88671875" style="3" customWidth="1"/>
@@ -1673,7 +1700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="90">
+    <row r="15" spans="1:6" ht="72">
       <c r="A15" s="11">
         <v>46003</v>
       </c>
@@ -1959,12 +1986,34 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="108">
       <c r="A41" s="11">
         <v>46045</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>235</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="126">
+      <c r="A42" s="11">
+        <v>46046</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11">
+        <v>46048</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1977,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="15.6"/>
@@ -2725,7 +2774,18 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="D36" s="6"/>
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>46046</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2734,6 +2794,9 @@
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>

--- a/Regular Summarization_ 530 PM.xlsx
+++ b/Regular Summarization_ 530 PM.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="253">
   <si>
     <t>Date</t>
   </si>
@@ -1014,6 +1014,18 @@
   </si>
   <si>
     <t>knn, dt, rf  | intro classfiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knn model | svr model | DT R model | Rf reGRESSION MODEL 
+one dataset we will several model -- best accuracy model pickle it deploy to the frontend
+confusion matrix -- TP , TN , FP, FN 
+accuracy -- tp+tn/total, error rate -- fp+fn/total , precion - tp /predicted yes , recall - tp / actual yes 
+fp - type 1 error &amp; fn -- type 2 error 
+why logistic regression called as classification , what could be the reason we intoduce probability function
+to handle outlier in the data intoduce sigmoid function | range of S curve - 0-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistic regression model </t>
   </si>
 </sst>
 </file>
@@ -1541,11 +1553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
@@ -2035,12 +2047,23 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="126">
       <c r="A44" s="11">
         <v>46049</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>250</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11">
+        <v>46050</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
